--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2705.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2705.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165998407801468</v>
+        <v>0.7042609453201294</v>
       </c>
       <c r="B1">
-        <v>2.411643507989305</v>
+        <v>1.236676692962646</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.604037523269653</v>
       </c>
       <c r="D1">
-        <v>2.342239628010273</v>
+        <v>2.804191827774048</v>
       </c>
       <c r="E1">
-        <v>1.216259217882031</v>
+        <v>1.51946747303009</v>
       </c>
     </row>
   </sheetData>
